--- a/Test/MDM.IT.SoftwareChange/Activities/CreateRequest.xlsx
+++ b/Test/MDM.IT.SoftwareChange/Activities/CreateRequest.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_Projects\ConsoleApplication2 - копия\TestConsole\bin\Debug\Test\MDM.IT.SoftwareChange\Activities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_Projects\ConsoleApplication2 - копия\Test\MDM.IT.SoftwareChange\Activities\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="120">
   <si>
     <t>action</t>
   </si>
@@ -358,9 +358,6 @@
     <t>SendRequest_Button</t>
   </si>
   <si>
-    <t>.ui-autocomplete-input</t>
-  </si>
-  <si>
     <t>Обучение и развитие персонала</t>
   </si>
   <si>
@@ -380,13 +377,25 @@
   </si>
   <si>
     <t>//span[text()='РБО']</t>
+  </si>
+  <si>
+    <t>BusinessProcessOwner_AutoComplete</t>
+  </si>
+  <si>
+    <t>Петренко Денис Александрович</t>
+  </si>
+  <si>
+    <t>jquery</t>
+  </si>
+  <si>
+    <t>div[name=ExploitationLocation_AutoComplete] input</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,6 +484,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7D2727"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -503,7 +519,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -548,6 +564,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -873,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,7 +969,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -965,18 +984,18 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>60</v>
@@ -990,16 +1009,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1010,13 +1029,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1027,13 +1046,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1041,14 +1060,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="D10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>106</v>
+        <v>60</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1056,45 +1077,45 @@
         <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>107</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>1</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
+      <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>1</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="8"/>
       <c r="D13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>46</v>
+        <v>60</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1102,76 +1123,77 @@
         <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>83</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C14" s="8"/>
       <c r="D14" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>113</v>
+        <v>15</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>1</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>11</v>
+      <c r="B15" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>108</v>
+      <c r="E15" s="9" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>1</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>0</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>85</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>0</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
         <v>15</v>
       </c>
@@ -1183,21 +1205,22 @@
       <c r="A20" s="6">
         <v>0</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>0</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -1207,23 +1230,23 @@
         <v>0</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="6">
-        <v>5000</v>
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="9"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>0</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>50</v>
+        <v>19</v>
+      </c>
+      <c r="C23" s="6">
+        <v>5000</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="9"/>
@@ -1233,34 +1256,27 @@
         <v>0</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>80</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>0</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>81</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1268,14 +1284,19 @@
         <v>0</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="D26" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1283,94 +1304,92 @@
         <v>0</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="6">
-        <v>15000</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>0</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C28" s="6">
+        <v>15000</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>0</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>0</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="18"/>
+        <v>51</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>0</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="D31" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="E31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="18"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>0</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>40</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C32" s="7"/>
       <c r="D32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>42</v>
+        <v>60</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1378,14 +1397,16 @@
         <v>0</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="D33" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>46</v>
+        <v>13</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1393,16 +1414,14 @@
         <v>0</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>72</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C34" s="8"/>
       <c r="D34" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>62</v>
+        <v>15</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1413,13 +1432,13 @@
         <v>69</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1430,13 +1449,13 @@
         <v>69</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1447,13 +1466,13 @@
         <v>69</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1464,13 +1483,13 @@
         <v>69</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1478,16 +1497,16 @@
         <v>0</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>37</v>
+        <v>69</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>67</v>
+      <c r="E39" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1497,8 +1516,8 @@
       <c r="B40" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>10</v>
+      <c r="C40" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>60</v>
@@ -1512,14 +1531,16 @@
         <v>0</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="D41" s="6" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1531,10 +1552,10 @@
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="11">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1542,45 +1563,45 @@
         <v>0</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>0</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="6" t="s">
+      <c r="D44" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <v>0</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>0</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>36</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
@@ -1594,7 +1615,7 @@
         <v>15</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1606,10 +1627,10 @@
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1617,14 +1638,14 @@
         <v>0</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1632,16 +1653,14 @@
         <v>0</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>92</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C49" s="6"/>
       <c r="D49" s="6" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1649,14 +1668,16 @@
         <v>0</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="D50" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1664,66 +1685,81 @@
         <v>0</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
+      <c r="D51" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>0</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>88</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>0</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>0</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="9"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>0</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C55" s="6">
         <v>10000</v>
       </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E57" s="3"/>
+      <c r="C57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <hyperlinks>
-    <hyperlink ref="C25" r:id="rId1"/>
-    <hyperlink ref="C53" r:id="rId2" display="http://k2/Runtime/Runtime/Form/MDM.Risks.OperRiskMessageL.SMF.CreateNewMessage/"/>
-    <hyperlink ref="C21" r:id="rId3" display="http://k2/Runtime/Runtime/Form/MDM.Risks.OperRiskMessageL.SMF.CreateNewMessage/"/>
+    <hyperlink ref="C26" r:id="rId1"/>
+    <hyperlink ref="C54" r:id="rId2" display="http://k2/Runtime/Runtime/Form/MDM.Risks.OperRiskMessageL.SMF.CreateNewMessage/"/>
+    <hyperlink ref="C22" r:id="rId3" display="http://k2/Runtime/Runtime/Form/MDM.Risks.OperRiskMessageL.SMF.CreateNewMessage/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -1734,25 +1770,25 @@
           <x14:formula1>
             <xm:f>Attribute!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>D55 D57:D1048576 H30 D2:D3 D6:D9 D28:D53 D11:D26</xm:sqref>
+          <xm:sqref>D56 D58:D1048576 H31 D2:D3 D12:D27 D29:D54 D6:D10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Action!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B3 B13:B14 B6:B9 B20:B1048576 B11 B16:B18</xm:sqref>
+          <xm:sqref>B2:B3 B14:B15 B17:B19 B21:B1048576 B12 B6:B10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[1]Action!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:B5 B10</xm:sqref>
+          <xm:sqref>B11 B4:B5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[1]Attribute!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D5 D10</xm:sqref>
+          <xm:sqref>D11 D4:D5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1893,7 +1929,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -1901,7 +1937,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1911,10 +1947,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,6 +1993,11 @@
         <v>60</v>
       </c>
     </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1967,7 +2008,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test/MDM.IT.SoftwareChange/Activities/CreateRequest.xlsx
+++ b/Test/MDM.IT.SoftwareChange/Activities/CreateRequest.xlsx
@@ -23,12 +23,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Scenario!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="124">
   <si>
     <t>action</t>
   </si>
@@ -376,9 +376,6 @@
     <t>AddToBufferFromElemInnerHTML</t>
   </si>
   <si>
-    <t>//span[text()='РБО']</t>
-  </si>
-  <si>
     <t>BusinessProcessOwner_AutoComplete</t>
   </si>
   <si>
@@ -389,6 +386,21 @@
   </si>
   <si>
     <t>div[name=ExploitationLocation_AutoComplete] input</t>
+  </si>
+  <si>
+    <t>//span[text()='RBO']</t>
+  </si>
+  <si>
+    <t>IsAffectRegulatedProcess_Choice</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>RBO</t>
+  </si>
+  <si>
+    <t>Desireddate_Calendar</t>
   </si>
 </sst>
 </file>
@@ -505,12 +517,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -519,7 +546,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -534,38 +561,47 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -892,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,836 +966,875 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="10">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>0</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="23">
+        <v>43081</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>0</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>0</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>0</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>1</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>0</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>0</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="E13" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>1</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>1</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>0</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>1</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>0</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>0</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>0</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>0</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>0</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>0</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="10">
+        <v>5000</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>0</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>0</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>0</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="C28" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>0</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>0</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="10">
+        <v>15000</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>0</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>0</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>0</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="C33" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>0</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>0</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>0</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>0</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>0</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>0</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>0</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>0</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>0</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="C42" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>0</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>1</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="C43" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>0</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
+      <c r="C44" s="10"/>
+      <c r="D44" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>0</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>0</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>0</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>0</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>1</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="E48" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>0</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>1</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="C49" s="10"/>
+      <c r="D49" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>0</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>1</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="C50" s="10"/>
+      <c r="D50" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>0</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>0</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>0</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>1</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>0</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="C53" s="10"/>
+      <c r="D53" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <v>0</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>0</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>0</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>0</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>0</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>0</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>0</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="C56" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>0</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="6">
-        <v>5000</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>0</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>0</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>0</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>0</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>0</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="6">
-        <v>15000</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>0</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>0</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>0</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="18"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>0</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>0</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>0</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>0</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>0</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <v>0</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
-        <v>0</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
-        <v>0</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
-        <v>0</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
-        <v>0</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
-        <v>0</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <v>0</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="11">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <v>0</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
-        <v>0</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
-        <v>0</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
-        <v>0</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <v>0</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
-        <v>0</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
-        <v>0</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
-        <v>0</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
-        <v>0</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
-        <v>0</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
-        <v>0</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="9"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
-        <v>0</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="6">
+      <c r="C57" s="10">
         <v>10000</v>
       </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E58" s="3"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <hyperlinks>
-    <hyperlink ref="C26" r:id="rId1"/>
-    <hyperlink ref="C54" r:id="rId2" display="http://k2/Runtime/Runtime/Form/MDM.Risks.OperRiskMessageL.SMF.CreateNewMessage/"/>
-    <hyperlink ref="C22" r:id="rId3" display="http://k2/Runtime/Runtime/Form/MDM.Risks.OperRiskMessageL.SMF.CreateNewMessage/"/>
+    <hyperlink ref="C28" r:id="rId1"/>
+    <hyperlink ref="C56" r:id="rId2" display="http://k2/Runtime/Runtime/Form/MDM.Risks.OperRiskMessageL.SMF.CreateNewMessage/"/>
+    <hyperlink ref="C24" r:id="rId3" display="http://k2/Runtime/Runtime/Form/MDM.Risks.OperRiskMessageL.SMF.CreateNewMessage/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -1770,25 +1845,25 @@
           <x14:formula1>
             <xm:f>Attribute!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>D56 D58:D1048576 H31 D2:D3 D12:D27 D29:D54 D6:D10</xm:sqref>
+          <xm:sqref>D58 D60:D1048576 H33 D6:D12 D14:D29 D31:D56 D2:D4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Action!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B3 B14:B15 B17:B19 B21:B1048576 B12 B6:B10</xm:sqref>
+          <xm:sqref>B6:B12 B16:B17 B19:B21 B23:B1048576 B14 B2:B4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[1]Action!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B11 B4:B5</xm:sqref>
+          <xm:sqref>B13 B5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[1]Attribute!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D11 D4:D5</xm:sqref>
+          <xm:sqref>D13 D5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1995,7 +2070,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2019,10 +2094,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2030,12 +2105,12 @@
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
